--- a/exp2/linux.xlsx
+++ b/exp2/linux.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RProject\tmp\exp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5ED2833-2FAD-4AB7-A2B5-C99D50CF6036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DE3BF2-F253-4F99-BB59-FDE5AF7FAF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20985" yWindow="5280" windowWidth="15165" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9165" yWindow="18300" windowWidth="27990" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -417,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D211"/>
+  <dimension ref="A1:D213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="D214" sqref="D214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -444,2942 +444,2960 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>85.030100000000004</v>
+        <v>97.668499999999995</v>
       </c>
       <c r="B2" s="2">
-        <v>196.803</v>
+        <v>231.24</v>
       </c>
       <c r="C2" s="2">
-        <v>79.900300000000001</v>
+        <v>99.597200000000001</v>
       </c>
       <c r="D2" s="2">
-        <v>97.636499999999998</v>
+        <v>99.890500000000003</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>102.13200000000001</v>
+        <v>138.51300000000001</v>
       </c>
       <c r="B3" s="2">
-        <v>251.596</v>
+        <v>313.08600000000001</v>
       </c>
       <c r="C3" s="2">
-        <v>91.968000000000004</v>
+        <v>143.24700000000001</v>
       </c>
       <c r="D3" s="2">
-        <v>116.872</v>
+        <v>141.56700000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>103.131</v>
+        <v>141.70400000000001</v>
       </c>
       <c r="B4" s="2">
-        <v>240.84299999999999</v>
+        <v>311.58499999999998</v>
       </c>
       <c r="C4" s="2">
-        <v>94.244500000000002</v>
+        <v>143.68700000000001</v>
       </c>
       <c r="D4" s="2">
-        <v>114.256</v>
+        <v>145.18299999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>104.517</v>
+        <v>141.11600000000001</v>
       </c>
       <c r="B5" s="2">
-        <v>255.905</v>
+        <v>323.99200000000002</v>
       </c>
       <c r="C5" s="2">
-        <v>92.922700000000006</v>
+        <v>142.69900000000001</v>
       </c>
       <c r="D5" s="2">
-        <v>114.744</v>
+        <v>146.238</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>113.155</v>
+        <v>130.28399999999999</v>
       </c>
       <c r="B6" s="2">
-        <v>252.18100000000001</v>
+        <v>310.70699999999999</v>
       </c>
       <c r="C6" s="2">
-        <v>90.880700000000004</v>
+        <v>137.61000000000001</v>
       </c>
       <c r="D6" s="2">
-        <v>110.798</v>
+        <v>140.36000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>109.485</v>
+        <v>129.839</v>
       </c>
       <c r="B7" s="2">
-        <v>244.821</v>
+        <v>308.15100000000001</v>
       </c>
       <c r="C7" s="2">
-        <v>85.775899999999993</v>
+        <v>132.56899999999999</v>
       </c>
       <c r="D7" s="2">
-        <v>107.699</v>
+        <v>135.63800000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>106.908</v>
+        <v>121.119</v>
       </c>
       <c r="B8" s="2">
-        <v>234.94900000000001</v>
+        <v>305.161</v>
       </c>
       <c r="C8" s="2">
-        <v>83.8429</v>
+        <v>134.071</v>
       </c>
       <c r="D8" s="2">
-        <v>106.29300000000001</v>
+        <v>132.535</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>107.014</v>
+        <v>127.752</v>
       </c>
       <c r="B9" s="2">
-        <v>227.827</v>
+        <v>298.52300000000002</v>
       </c>
       <c r="C9" s="2">
-        <v>80.880600000000001</v>
+        <v>129.09100000000001</v>
       </c>
       <c r="D9" s="2">
-        <v>104.76600000000001</v>
+        <v>130.06800000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>102.301</v>
+        <v>122.596</v>
       </c>
       <c r="B10" s="2">
-        <v>237.48400000000001</v>
+        <v>287.55599999999998</v>
       </c>
       <c r="C10" s="2">
-        <v>78.104799999999997</v>
+        <v>122.24</v>
       </c>
       <c r="D10" s="2">
-        <v>98.983400000000003</v>
+        <v>126.209</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>108.64100000000001</v>
+        <v>134.119</v>
       </c>
       <c r="B11" s="2">
-        <v>247.77500000000001</v>
+        <v>312.63099999999997</v>
       </c>
       <c r="C11" s="2">
-        <v>84.6571</v>
+        <v>132.19999999999999</v>
       </c>
       <c r="D11" s="2">
-        <v>103.21899999999999</v>
+        <v>129.29900000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>108.09699999999999</v>
+        <v>124.15300000000001</v>
       </c>
       <c r="B12" s="2">
-        <v>258.58699999999999</v>
+        <v>303.00700000000001</v>
       </c>
       <c r="C12" s="2">
-        <v>77.847399999999993</v>
+        <v>118.038</v>
       </c>
       <c r="D12" s="2">
-        <v>103.27200000000001</v>
+        <v>127.339</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>111.736</v>
+        <v>128.084</v>
       </c>
       <c r="B13" s="2">
-        <v>252.50399999999999</v>
+        <v>308.61</v>
       </c>
       <c r="C13" s="2">
-        <v>69.309600000000003</v>
+        <v>99.513000000000005</v>
       </c>
       <c r="D13" s="2">
-        <v>103.224</v>
+        <v>126.253</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>109.04600000000001</v>
+        <v>133.69900000000001</v>
       </c>
       <c r="B14" s="2">
-        <v>248.697</v>
+        <v>297.041</v>
       </c>
       <c r="C14" s="2">
-        <v>64.430800000000005</v>
+        <v>88.810500000000005</v>
       </c>
       <c r="D14" s="2">
-        <v>102.79300000000001</v>
+        <v>125.26</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>104.405</v>
+        <v>120.992</v>
       </c>
       <c r="B15" s="2">
-        <v>219.149</v>
+        <v>289.28100000000001</v>
       </c>
       <c r="C15" s="2">
-        <v>56.548299999999998</v>
+        <v>79.138499999999993</v>
       </c>
       <c r="D15" s="2">
-        <v>97.636899999999997</v>
+        <v>113.595</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>104.05500000000001</v>
+        <v>121.34699999999999</v>
       </c>
       <c r="B16" s="2">
-        <v>224.30699999999999</v>
+        <v>285.827</v>
       </c>
       <c r="C16" s="2">
-        <v>56.5229</v>
+        <v>75.479699999999994</v>
       </c>
       <c r="D16" s="2">
-        <v>98.370900000000006</v>
+        <v>115.834</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>107.26</v>
+        <v>127.25</v>
       </c>
       <c r="B17" s="2">
-        <v>244.02</v>
+        <v>294.67399999999998</v>
       </c>
       <c r="C17" s="2">
-        <v>54.733699999999999</v>
+        <v>70.142499999999998</v>
       </c>
       <c r="D17" s="2">
-        <v>98.561300000000003</v>
+        <v>118.96</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>105.268</v>
+        <v>123.541</v>
       </c>
       <c r="B18" s="2">
-        <v>219.90100000000001</v>
+        <v>291.13200000000001</v>
       </c>
       <c r="C18" s="2">
-        <v>54.220300000000002</v>
+        <v>71.232299999999995</v>
       </c>
       <c r="D18" s="2">
-        <v>100.042</v>
+        <v>115.70099999999999</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>103.377</v>
+        <v>122.91800000000001</v>
       </c>
       <c r="B19" s="2">
-        <v>223.02699999999999</v>
+        <v>295.041</v>
       </c>
       <c r="C19" s="2">
-        <v>55.488900000000001</v>
+        <v>71.399799999999999</v>
       </c>
       <c r="D19" s="2">
-        <v>103.14</v>
+        <v>116.27500000000001</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>103.307</v>
+        <v>119.995</v>
       </c>
       <c r="B20" s="2">
-        <v>212.00800000000001</v>
+        <v>279.76400000000001</v>
       </c>
       <c r="C20" s="2">
-        <v>51.082099999999997</v>
+        <v>66.313000000000002</v>
       </c>
       <c r="D20" s="2">
-        <v>96.253399999999999</v>
+        <v>112.259</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>100.99</v>
+        <v>124.392</v>
       </c>
       <c r="B21" s="2">
-        <v>230.614</v>
+        <v>294.30399999999997</v>
       </c>
       <c r="C21" s="2">
-        <v>52.365299999999998</v>
+        <v>67.7928</v>
       </c>
       <c r="D21" s="2">
-        <v>101.14100000000001</v>
+        <v>120.434</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>103.925</v>
+        <v>131.923</v>
       </c>
       <c r="B22" s="2">
-        <v>230.58099999999999</v>
+        <v>300.43599999999998</v>
       </c>
       <c r="C22" s="2">
-        <v>52.414400000000001</v>
+        <v>66.533299999999997</v>
       </c>
       <c r="D22" s="2">
-        <v>104.13500000000001</v>
+        <v>125.47</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>106.73699999999999</v>
+        <v>124.601</v>
       </c>
       <c r="B23" s="2">
-        <v>232.50200000000001</v>
+        <v>300.20699999999999</v>
       </c>
       <c r="C23" s="2">
-        <v>51.331699999999998</v>
+        <v>65.775300000000001</v>
       </c>
       <c r="D23" s="2">
-        <v>101.748</v>
+        <v>118.78700000000001</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>119.02800000000001</v>
+        <v>128.06299999999999</v>
       </c>
       <c r="B24" s="2">
-        <v>233.643</v>
+        <v>297.34699999999998</v>
       </c>
       <c r="C24" s="2">
-        <v>50.989800000000002</v>
+        <v>63.033099999999997</v>
       </c>
       <c r="D24" s="2">
-        <v>100.877</v>
+        <v>121.08199999999999</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>126.02200000000001</v>
+        <v>132.643</v>
       </c>
       <c r="B25" s="2">
-        <v>233.11699999999999</v>
+        <v>307.964</v>
       </c>
       <c r="C25" s="2">
-        <v>51.183700000000002</v>
+        <v>60.013300000000001</v>
       </c>
       <c r="D25" s="2">
-        <v>101.453</v>
+        <v>126.33799999999999</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>127.246</v>
+        <v>131.14599999999999</v>
       </c>
       <c r="B26" s="2">
-        <v>238.03299999999999</v>
+        <v>302.721</v>
       </c>
       <c r="C26" s="2">
-        <v>50.747199999999999</v>
+        <v>60.020099999999999</v>
       </c>
       <c r="D26" s="2">
-        <v>101.85299999999999</v>
+        <v>121.65600000000001</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>124.768</v>
+        <v>132.602</v>
       </c>
       <c r="B27" s="2">
-        <v>233.917</v>
+        <v>306.34800000000001</v>
       </c>
       <c r="C27" s="2">
-        <v>48.815600000000003</v>
+        <v>57.408700000000003</v>
       </c>
       <c r="D27" s="2">
-        <v>101.504</v>
+        <v>120.697</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>124.047</v>
+        <v>129.84299999999999</v>
       </c>
       <c r="B28" s="2">
-        <v>223.56</v>
+        <v>294.19499999999999</v>
       </c>
       <c r="C28" s="2">
-        <v>46.950400000000002</v>
+        <v>54.668100000000003</v>
       </c>
       <c r="D28" s="2">
-        <v>98.495699999999999</v>
+        <v>116.569</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>128.78299999999999</v>
+        <v>133.37799999999999</v>
       </c>
       <c r="B29" s="2">
-        <v>247.55199999999999</v>
+        <v>303.77800000000002</v>
       </c>
       <c r="C29" s="2">
-        <v>48.372599999999998</v>
+        <v>55.9</v>
       </c>
       <c r="D29" s="2">
-        <v>103.273</v>
+        <v>122.80200000000001</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>126.199</v>
+        <v>129.333</v>
       </c>
       <c r="B30" s="2">
-        <v>215.28700000000001</v>
+        <v>295.97699999999998</v>
       </c>
       <c r="C30" s="2">
-        <v>43.965600000000002</v>
+        <v>50.857999999999997</v>
       </c>
       <c r="D30" s="2">
-        <v>96.581500000000005</v>
+        <v>114.54900000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>125.855</v>
+        <v>134.98500000000001</v>
       </c>
       <c r="B31" s="2">
-        <v>240.506</v>
+        <v>312.238</v>
       </c>
       <c r="C31" s="2">
-        <v>44.285400000000003</v>
+        <v>51.192100000000003</v>
       </c>
       <c r="D31" s="2">
-        <v>100.51900000000001</v>
+        <v>120.623</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>102.741</v>
+        <v>102.236</v>
       </c>
       <c r="B32" s="2">
-        <v>192.53700000000001</v>
+        <v>239.77600000000001</v>
       </c>
       <c r="C32" s="2">
-        <v>44.074399999999997</v>
+        <v>52.241100000000003</v>
       </c>
       <c r="D32" s="2">
-        <v>85.971400000000003</v>
+        <v>92.461699999999993</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>119.773</v>
+        <v>137.602</v>
       </c>
       <c r="B33" s="2">
-        <v>251.69900000000001</v>
+        <v>316.524</v>
       </c>
       <c r="C33" s="2">
-        <v>60.896999999999998</v>
+        <v>74.490099999999998</v>
       </c>
       <c r="D33" s="2">
-        <v>110.738</v>
+        <v>134.839</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>118.56699999999999</v>
+        <v>133.785</v>
       </c>
       <c r="B34" s="2">
-        <v>246.238</v>
+        <v>315.43900000000002</v>
       </c>
       <c r="C34" s="2">
-        <v>59.587000000000003</v>
+        <v>73.989000000000004</v>
       </c>
       <c r="D34" s="2">
-        <v>111.479</v>
+        <v>136.16999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>126.85</v>
+        <v>139.47999999999999</v>
       </c>
       <c r="B35" s="2">
-        <v>239.55500000000001</v>
+        <v>313.39600000000002</v>
       </c>
       <c r="C35" s="2">
-        <v>59.259900000000002</v>
+        <v>72.288499999999999</v>
       </c>
       <c r="D35" s="2">
-        <v>110.233</v>
+        <v>138.06800000000001</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>113.304</v>
+        <v>135.66800000000001</v>
       </c>
       <c r="B36" s="2">
-        <v>259.07299999999998</v>
+        <v>313.83300000000003</v>
       </c>
       <c r="C36" s="2">
-        <v>57.776400000000002</v>
+        <v>69.942899999999995</v>
       </c>
       <c r="D36" s="2">
-        <v>109.64100000000001</v>
+        <v>136.33600000000001</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>112.38</v>
+        <v>138.03399999999999</v>
       </c>
       <c r="B37" s="2">
-        <v>246.53399999999999</v>
+        <v>310.971</v>
       </c>
       <c r="C37" s="2">
-        <v>55.317</v>
+        <v>67.614599999999996</v>
       </c>
       <c r="D37" s="2">
-        <v>107.363</v>
+        <v>135.45699999999999</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>113.038</v>
+        <v>137.536</v>
       </c>
       <c r="B38" s="2">
-        <v>244.93700000000001</v>
+        <v>319.53199999999998</v>
       </c>
       <c r="C38" s="2">
-        <v>55.163600000000002</v>
+        <v>67.577299999999994</v>
       </c>
       <c r="D38" s="2">
-        <v>109.812</v>
+        <v>134.721</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>113.202</v>
+        <v>134.709</v>
       </c>
       <c r="B39" s="2">
-        <v>240.01599999999999</v>
+        <v>312.37</v>
       </c>
       <c r="C39" s="2">
-        <v>52.03</v>
+        <v>63.402299999999997</v>
       </c>
       <c r="D39" s="2">
-        <v>109.8</v>
+        <v>132.08799999999999</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>112.38800000000001</v>
+        <v>140.363</v>
       </c>
       <c r="B40" s="2">
-        <v>241.262</v>
+        <v>311.565</v>
       </c>
       <c r="C40" s="2">
-        <v>50.771099999999997</v>
+        <v>61.142400000000002</v>
       </c>
       <c r="D40" s="2">
-        <v>105.694</v>
+        <v>133.208</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>114</v>
+        <v>137.577</v>
       </c>
       <c r="B41" s="2">
-        <v>233.80699999999999</v>
+        <v>303.46199999999999</v>
       </c>
       <c r="C41" s="2">
-        <v>48.810099999999998</v>
+        <v>58.217799999999997</v>
       </c>
       <c r="D41" s="2">
-        <v>104.706</v>
+        <v>128.28800000000001</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>117.378</v>
+        <v>136.827</v>
       </c>
       <c r="B42" s="2">
-        <v>250.13200000000001</v>
+        <v>311.339</v>
       </c>
       <c r="C42" s="2">
-        <v>38.7577</v>
+        <v>43.911700000000003</v>
       </c>
       <c r="D42" s="2">
-        <v>100.87</v>
+        <v>117.179</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>114.01300000000001</v>
+        <v>135.99100000000001</v>
       </c>
       <c r="B43" s="2">
-        <v>234.23500000000001</v>
+        <v>305.97199999999998</v>
       </c>
       <c r="C43" s="2">
-        <v>36.421399999999998</v>
+        <v>41.165300000000002</v>
       </c>
       <c r="D43" s="2">
-        <v>97.512500000000003</v>
+        <v>115.99</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>114.866</v>
+        <v>134.72</v>
       </c>
       <c r="B44" s="2">
-        <v>236.904</v>
+        <v>306.334</v>
       </c>
       <c r="C44" s="2">
-        <v>35.985599999999998</v>
+        <v>40.582799999999999</v>
       </c>
       <c r="D44" s="2">
-        <v>97.708299999999994</v>
+        <v>117.628</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>117.044</v>
+        <v>134.41</v>
       </c>
       <c r="B45" s="2">
-        <v>249.94399999999999</v>
+        <v>307.233</v>
       </c>
       <c r="C45" s="2">
-        <v>35.164400000000001</v>
+        <v>39.362099999999998</v>
       </c>
       <c r="D45" s="2">
-        <v>99.917900000000003</v>
+        <v>117.866</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>117.49299999999999</v>
+        <v>136.70699999999999</v>
       </c>
       <c r="B46" s="2">
-        <v>266.23500000000001</v>
+        <v>312.072</v>
       </c>
       <c r="C46" s="2">
-        <v>36.453099999999999</v>
+        <v>40.626899999999999</v>
       </c>
       <c r="D46" s="2">
-        <v>99.787700000000001</v>
+        <v>120.21299999999999</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>116.10299999999999</v>
+        <v>143.26599999999999</v>
       </c>
       <c r="B47" s="2">
-        <v>256.50799999999998</v>
+        <v>316.47000000000003</v>
       </c>
       <c r="C47" s="2">
-        <v>36.676299999999998</v>
+        <v>41.229900000000001</v>
       </c>
       <c r="D47" s="2">
-        <v>102.846</v>
+        <v>122.45099999999999</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>115.77800000000001</v>
+        <v>141.90199999999999</v>
       </c>
       <c r="B48" s="2">
-        <v>258.18099999999998</v>
+        <v>315.70100000000002</v>
       </c>
       <c r="C48" s="2">
-        <v>37.728700000000003</v>
+        <v>42.757800000000003</v>
       </c>
       <c r="D48" s="2">
-        <v>105.05800000000001</v>
+        <v>125.789</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>120.59699999999999</v>
+        <v>144.261</v>
       </c>
       <c r="B49" s="2">
-        <v>260.803</v>
+        <v>319.55</v>
       </c>
       <c r="C49" s="2">
-        <v>39.948300000000003</v>
+        <v>45.460799999999999</v>
       </c>
       <c r="D49" s="2">
-        <v>106.58199999999999</v>
+        <v>128.70699999999999</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>123.398</v>
+        <v>148.333</v>
       </c>
       <c r="B50" s="2">
-        <v>252.89500000000001</v>
+        <v>328.37099999999998</v>
       </c>
       <c r="C50" s="2">
-        <v>43.872999999999998</v>
+        <v>49.2652</v>
       </c>
       <c r="D50" s="2">
-        <v>113.178</v>
+        <v>139.626</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>115.69499999999999</v>
+        <v>141.98400000000001</v>
       </c>
       <c r="B51" s="2">
-        <v>244.57</v>
+        <v>314.88099999999997</v>
       </c>
       <c r="C51" s="2">
-        <v>45.064</v>
+        <v>54.2986</v>
       </c>
       <c r="D51" s="2">
-        <v>105.53700000000001</v>
+        <v>128.58600000000001</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>91.642300000000006</v>
+        <v>109.452</v>
       </c>
       <c r="B52" s="2">
-        <v>203.71799999999999</v>
+        <v>259.48599999999999</v>
       </c>
       <c r="C52" s="2">
-        <v>42.979100000000003</v>
+        <v>51.087200000000003</v>
       </c>
       <c r="D52" s="2">
-        <v>90.257300000000001</v>
+        <v>101.303</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>123.46299999999999</v>
+        <v>134.11600000000001</v>
       </c>
       <c r="B53" s="2">
-        <v>238.86199999999999</v>
+        <v>297.47000000000003</v>
       </c>
       <c r="C53" s="2">
-        <v>53.858199999999997</v>
+        <v>66.106300000000005</v>
       </c>
       <c r="D53" s="2">
-        <v>108.76</v>
+        <v>133.54</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>129.304</v>
+        <v>139.08699999999999</v>
       </c>
       <c r="B54" s="2">
-        <v>229.959</v>
+        <v>321.11099999999999</v>
       </c>
       <c r="C54" s="2">
-        <v>55.5764</v>
+        <v>68.637900000000002</v>
       </c>
       <c r="D54" s="2">
-        <v>111.56</v>
+        <v>137.88999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>132.02699999999999</v>
+        <v>148.08500000000001</v>
       </c>
       <c r="B55" s="2">
-        <v>256.05200000000002</v>
+        <v>339.19400000000002</v>
       </c>
       <c r="C55" s="2">
-        <v>56.533799999999999</v>
+        <v>69.591800000000006</v>
       </c>
       <c r="D55" s="2">
-        <v>116.09699999999999</v>
+        <v>144.876</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>145.96600000000001</v>
+        <v>150.143</v>
       </c>
       <c r="B56" s="2">
-        <v>262.64100000000002</v>
+        <v>339.30900000000003</v>
       </c>
       <c r="C56" s="2">
-        <v>56.125500000000002</v>
+        <v>69.396199999999993</v>
       </c>
       <c r="D56" s="2">
-        <v>120.084</v>
+        <v>149.816</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>144.55500000000001</v>
+        <v>148.50899999999999</v>
       </c>
       <c r="B57" s="2">
-        <v>269.22699999999998</v>
+        <v>338.89800000000002</v>
       </c>
       <c r="C57" s="2">
-        <v>53.802599999999998</v>
+        <v>65.282600000000002</v>
       </c>
       <c r="D57" s="2">
-        <v>113.21599999999999</v>
+        <v>143.095</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>146.93899999999999</v>
+        <v>151.34899999999999</v>
       </c>
       <c r="B58" s="2">
-        <v>261.40499999999997</v>
+        <v>333.32400000000001</v>
       </c>
       <c r="C58" s="2">
-        <v>53.542900000000003</v>
+        <v>65.456500000000005</v>
       </c>
       <c r="D58" s="2">
-        <v>114.44199999999999</v>
+        <v>145.66800000000001</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>146.31</v>
+        <v>152.03800000000001</v>
       </c>
       <c r="B59" s="2">
-        <v>261.74099999999999</v>
+        <v>340.88499999999999</v>
       </c>
       <c r="C59" s="2">
-        <v>56.655099999999997</v>
+        <v>65.126400000000004</v>
       </c>
       <c r="D59" s="2">
-        <v>117.312</v>
+        <v>149.071</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>147.89500000000001</v>
+        <v>151.27000000000001</v>
       </c>
       <c r="B60" s="2">
-        <v>267.68</v>
+        <v>340.78100000000001</v>
       </c>
       <c r="C60" s="2">
-        <v>58.259399999999999</v>
+        <v>61.977699999999999</v>
       </c>
       <c r="D60" s="2">
-        <v>117.642</v>
+        <v>144.98400000000001</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>148.75399999999999</v>
+        <v>151.852</v>
       </c>
       <c r="B61" s="2">
-        <v>262.20400000000001</v>
+        <v>345.06</v>
       </c>
       <c r="C61" s="2">
-        <v>56.765700000000002</v>
+        <v>58.8996</v>
       </c>
       <c r="D61" s="2">
-        <v>114.334</v>
+        <v>139.97499999999999</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>141.976</v>
+        <v>140.16200000000001</v>
       </c>
       <c r="B62" s="2">
-        <v>252.34100000000001</v>
+        <v>315.17</v>
       </c>
       <c r="C62" s="2">
-        <v>42.717500000000001</v>
+        <v>44.414200000000001</v>
       </c>
       <c r="D62" s="2">
-        <v>100.83</v>
+        <v>120.902</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>149.90600000000001</v>
+        <v>151.476</v>
       </c>
       <c r="B63" s="2">
-        <v>262.39699999999999</v>
+        <v>341.46300000000002</v>
       </c>
       <c r="C63" s="2">
-        <v>52.010899999999999</v>
+        <v>56.367600000000003</v>
       </c>
       <c r="D63" s="2">
-        <v>114.973</v>
+        <v>141.91200000000001</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>140.17699999999999</v>
+        <v>139.13</v>
       </c>
       <c r="B64" s="2">
-        <v>250.57499999999999</v>
+        <v>319.745</v>
       </c>
       <c r="C64" s="2">
-        <v>41.547699999999999</v>
+        <v>42.795699999999997</v>
       </c>
       <c r="D64" s="2">
-        <v>101.316</v>
+        <v>122.339</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>138.43299999999999</v>
+        <v>140.65899999999999</v>
       </c>
       <c r="B65" s="2">
-        <v>220.405</v>
+        <v>334.2</v>
       </c>
       <c r="C65" s="2">
-        <v>41.159399999999998</v>
+        <v>42.143799999999999</v>
       </c>
       <c r="D65" s="2">
-        <v>104.343</v>
+        <v>124.23699999999999</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>137.59399999999999</v>
+        <v>141.685</v>
       </c>
       <c r="B66" s="2">
-        <v>259.62799999999999</v>
+        <v>326.72800000000001</v>
       </c>
       <c r="C66" s="2">
-        <v>39.984299999999998</v>
+        <v>40.415999999999997</v>
       </c>
       <c r="D66" s="2">
-        <v>102.974</v>
+        <v>125.125</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>141.98400000000001</v>
+        <v>146.012</v>
       </c>
       <c r="B67" s="2">
-        <v>258.76600000000002</v>
+        <v>327.31400000000002</v>
       </c>
       <c r="C67" s="2">
-        <v>38.695500000000003</v>
+        <v>40.584699999999998</v>
       </c>
       <c r="D67" s="2">
-        <v>101.75</v>
+        <v>126.729</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>142.24600000000001</v>
+        <v>146.221</v>
       </c>
       <c r="B68" s="2">
-        <v>237.22300000000001</v>
+        <v>313.02100000000002</v>
       </c>
       <c r="C68" s="2">
-        <v>39.589399999999998</v>
+        <v>40.480400000000003</v>
       </c>
       <c r="D68" s="2">
-        <v>103.765</v>
+        <v>125.378</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>145.43</v>
+        <v>149.011</v>
       </c>
       <c r="B69" s="2">
-        <v>256.68099999999998</v>
+        <v>336.12700000000001</v>
       </c>
       <c r="C69" s="2">
-        <v>39.721400000000003</v>
+        <v>41.207799999999999</v>
       </c>
       <c r="D69" s="2">
-        <v>105.018</v>
+        <v>129.923</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>145.648</v>
+        <v>150.26599999999999</v>
       </c>
       <c r="B70" s="2">
-        <v>263.601</v>
+        <v>333.20800000000003</v>
       </c>
       <c r="C70" s="2">
-        <v>38.926900000000003</v>
+        <v>43.372799999999998</v>
       </c>
       <c r="D70" s="2">
-        <v>110.562</v>
+        <v>133.69999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>150.136</v>
+        <v>153.137</v>
       </c>
       <c r="B71" s="2">
-        <v>269.60500000000002</v>
+        <v>342.16800000000001</v>
       </c>
       <c r="C71" s="2">
-        <v>42.095399999999998</v>
+        <v>48.022500000000001</v>
       </c>
       <c r="D71" s="2">
-        <v>116.25</v>
+        <v>144.83799999999999</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>155.22999999999999</v>
+        <v>155.99199999999999</v>
       </c>
       <c r="B72" s="2">
-        <v>262.59199999999998</v>
+        <v>343.66199999999998</v>
       </c>
       <c r="C72" s="2">
-        <v>46.6098</v>
+        <v>54.675199999999997</v>
       </c>
       <c r="D72" s="2">
-        <v>112.55200000000001</v>
+        <v>139.05500000000001</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>120.90300000000001</v>
+        <v>120.625</v>
       </c>
       <c r="B73" s="2">
-        <v>226.48400000000001</v>
+        <v>279.17099999999999</v>
       </c>
       <c r="C73" s="2">
-        <v>46.099200000000003</v>
+        <v>54.5428</v>
       </c>
       <c r="D73" s="2">
-        <v>95.407300000000006</v>
+        <v>109.009</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>144.73599999999999</v>
+        <v>157.99199999999999</v>
       </c>
       <c r="B74" s="2">
-        <v>276.21600000000001</v>
+        <v>357.68900000000002</v>
       </c>
       <c r="C74" s="2">
-        <v>66.045699999999997</v>
+        <v>82.958799999999997</v>
       </c>
       <c r="D74" s="2">
-        <v>127.884</v>
+        <v>161.554</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>153.80799999999999</v>
+        <v>168.19399999999999</v>
       </c>
       <c r="B75" s="2">
-        <v>288.55200000000002</v>
+        <v>376.16500000000002</v>
       </c>
       <c r="C75" s="2">
-        <v>67.186400000000006</v>
+        <v>83.715599999999995</v>
       </c>
       <c r="D75" s="2">
-        <v>134.898</v>
+        <v>153.68700000000001</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>155.506</v>
+        <v>164.75700000000001</v>
       </c>
       <c r="B76" s="2">
-        <v>277.09399999999999</v>
+        <v>361.58699999999999</v>
       </c>
       <c r="C76" s="2">
-        <v>65.373000000000005</v>
+        <v>80.800399999999996</v>
       </c>
       <c r="D76" s="2">
-        <v>128.66800000000001</v>
+        <v>151.75800000000001</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>156.32599999999999</v>
+        <v>155.44900000000001</v>
       </c>
       <c r="B77" s="2">
-        <v>266.70699999999999</v>
+        <v>340.40899999999999</v>
       </c>
       <c r="C77" s="2">
-        <v>41.146900000000002</v>
+        <v>47.816400000000002</v>
       </c>
       <c r="D77" s="2">
-        <v>109.44</v>
+        <v>121.289</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>152.06299999999999</v>
+        <v>154.34899999999999</v>
       </c>
       <c r="B78" s="2">
-        <v>262.101</v>
+        <v>345.50599999999997</v>
       </c>
       <c r="C78" s="2">
-        <v>42.340400000000002</v>
+        <v>49.904699999999998</v>
       </c>
       <c r="D78" s="2">
-        <v>111.40600000000001</v>
+        <v>120.494</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>157.995</v>
+        <v>160.749</v>
       </c>
       <c r="B79" s="2">
-        <v>277.96499999999997</v>
+        <v>354.10899999999998</v>
       </c>
       <c r="C79" s="2">
-        <v>46.896799999999999</v>
+        <v>52.024999999999999</v>
       </c>
       <c r="D79" s="2">
-        <v>116.078</v>
+        <v>126.583</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>160.24700000000001</v>
+        <v>159.29</v>
       </c>
       <c r="B80" s="2">
-        <v>282.779</v>
+        <v>354.91</v>
       </c>
       <c r="C80" s="2">
-        <v>49.9876</v>
+        <v>52.003</v>
       </c>
       <c r="D80" s="2">
-        <v>119.254</v>
+        <v>134.85499999999999</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>159.43799999999999</v>
+        <v>161.72200000000001</v>
       </c>
       <c r="B81" s="2">
-        <v>282.517</v>
+        <v>357.24599999999998</v>
       </c>
       <c r="C81" s="2">
-        <v>49.222099999999998</v>
+        <v>50.903100000000002</v>
       </c>
       <c r="D81" s="2">
-        <v>119.491</v>
+        <v>148.76599999999999</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>163.68799999999999</v>
+        <v>164.25299999999999</v>
       </c>
       <c r="B82" s="2">
-        <v>285.005</v>
+        <v>361.07499999999999</v>
       </c>
       <c r="C82" s="2">
-        <v>48.302</v>
+        <v>51.539200000000001</v>
       </c>
       <c r="D82" s="2">
-        <v>122.059</v>
+        <v>153.87200000000001</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>164.28399999999999</v>
+        <v>130.047</v>
       </c>
       <c r="B83" s="2">
-        <v>285.57600000000002</v>
+        <v>364.15300000000002</v>
       </c>
       <c r="C83" s="2">
-        <v>50.070099999999996</v>
+        <v>51.876800000000003</v>
       </c>
       <c r="D83" s="2">
-        <v>123.001</v>
+        <v>151.465</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>162.88399999999999</v>
+        <v>164.441</v>
       </c>
       <c r="B84" s="2">
-        <v>291.72800000000001</v>
+        <v>363.61</v>
       </c>
       <c r="C84" s="2">
-        <v>51.601900000000001</v>
+        <v>54.003700000000002</v>
       </c>
       <c r="D84" s="2">
-        <v>124.33</v>
+        <v>156.452</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>158.33199999999999</v>
+        <v>142.92099999999999</v>
       </c>
       <c r="B85" s="2">
-        <v>267.85199999999998</v>
+        <v>304.53100000000001</v>
       </c>
       <c r="C85" s="2">
-        <v>54.205500000000001</v>
+        <v>74.061899999999994</v>
       </c>
       <c r="D85" s="2">
-        <v>126.38500000000001</v>
+        <v>145.40100000000001</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>156.626</v>
+        <v>169.846</v>
       </c>
       <c r="B86" s="2">
-        <v>269.02800000000002</v>
+        <v>396.58699999999999</v>
       </c>
       <c r="C86" s="2">
-        <v>83.680499999999995</v>
+        <v>111.318</v>
       </c>
       <c r="D86" s="2">
-        <v>143.98099999999999</v>
+        <v>190.31200000000001</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>164.958</v>
+        <v>196.518</v>
       </c>
       <c r="B87" s="2">
-        <v>318.96899999999999</v>
+        <v>420.202</v>
       </c>
       <c r="C87" s="2">
-        <v>111.639</v>
+        <v>125.26300000000001</v>
       </c>
       <c r="D87" s="2">
-        <v>168.29</v>
+        <v>213.095</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>168.33199999999999</v>
+        <v>199.17599999999999</v>
       </c>
       <c r="B88" s="2">
-        <v>319.79700000000003</v>
+        <v>406.87700000000001</v>
       </c>
       <c r="C88" s="2">
-        <v>109.23399999999999</v>
+        <v>122.294</v>
       </c>
       <c r="D88" s="2">
-        <v>168.614</v>
+        <v>212.328</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>177.11</v>
+        <v>193.06899999999999</v>
       </c>
       <c r="B89" s="2">
-        <v>316.52</v>
+        <v>411.03</v>
       </c>
       <c r="C89" s="2">
-        <v>108.494</v>
+        <v>119.902</v>
       </c>
       <c r="D89" s="2">
-        <v>168.553</v>
+        <v>210.01499999999999</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>181.75399999999999</v>
+        <v>195.279</v>
       </c>
       <c r="B90" s="2">
-        <v>315.37099999999998</v>
+        <v>418.24299999999999</v>
       </c>
       <c r="C90" s="2">
-        <v>103.779</v>
+        <v>116.008</v>
       </c>
       <c r="D90" s="2">
-        <v>169.369</v>
+        <v>210.67400000000001</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>181.27</v>
+        <v>193.89099999999999</v>
       </c>
       <c r="B91" s="2">
-        <v>317.27300000000002</v>
+        <v>422.69099999999997</v>
       </c>
       <c r="C91" s="2">
-        <v>104.38800000000001</v>
+        <v>112.461</v>
       </c>
       <c r="D91" s="2">
-        <v>170.52500000000001</v>
+        <v>207.77199999999999</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>184.14400000000001</v>
+        <v>193.184</v>
       </c>
       <c r="B92" s="2">
-        <v>324.48</v>
+        <v>419.08800000000002</v>
       </c>
       <c r="C92" s="2">
-        <v>101.777</v>
+        <v>111.47199999999999</v>
       </c>
       <c r="D92" s="2">
-        <v>169.24700000000001</v>
+        <v>208.91200000000001</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>184.67699999999999</v>
+        <v>190.732</v>
       </c>
       <c r="B93" s="2">
-        <v>328.16199999999998</v>
+        <v>409.43599999999998</v>
       </c>
       <c r="C93" s="2">
-        <v>96.971199999999996</v>
+        <v>104.1</v>
       </c>
       <c r="D93" s="2">
-        <v>168.714</v>
+        <v>207.29400000000001</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>183.03899999999999</v>
+        <v>185.92099999999999</v>
       </c>
       <c r="B94" s="2">
-        <v>400.52499999999998</v>
+        <v>408.173</v>
       </c>
       <c r="C94" s="2">
-        <v>88.687100000000001</v>
+        <v>94.307199999999995</v>
       </c>
       <c r="D94" s="2">
-        <v>164.38</v>
+        <v>194.97200000000001</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>187.28700000000001</v>
+        <v>196.15</v>
       </c>
       <c r="B95" s="2">
-        <v>431.69400000000002</v>
+        <v>425.375</v>
       </c>
       <c r="C95" s="2">
-        <v>93.583799999999997</v>
+        <v>101.14400000000001</v>
       </c>
       <c r="D95" s="2">
-        <v>173.51499999999999</v>
+        <v>211.75299999999999</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>187.28200000000001</v>
+        <v>194.166</v>
       </c>
       <c r="B96" s="2">
-        <v>429.88600000000002</v>
+        <v>417.161</v>
       </c>
       <c r="C96" s="2">
-        <v>91.836699999999993</v>
+        <v>96.533699999999996</v>
       </c>
       <c r="D96" s="2">
-        <v>172.98400000000001</v>
+        <v>210.81899999999999</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>186.863</v>
+        <v>194.93799999999999</v>
       </c>
       <c r="B97" s="2">
-        <v>353.15899999999999</v>
+        <v>425.50900000000001</v>
       </c>
       <c r="C97" s="2">
-        <v>87.456400000000002</v>
+        <v>90.702500000000001</v>
       </c>
       <c r="D97" s="2">
-        <v>170.26300000000001</v>
+        <v>209.21100000000001</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>190.28800000000001</v>
+        <v>198.268</v>
       </c>
       <c r="B98" s="2">
-        <v>321.20499999999998</v>
+        <v>416.18</v>
       </c>
       <c r="C98" s="2">
-        <v>82.556600000000003</v>
+        <v>87.084599999999995</v>
       </c>
       <c r="D98" s="2">
-        <v>170.96199999999999</v>
+        <v>208.32300000000001</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>189.077</v>
+        <v>196.464</v>
       </c>
       <c r="B99" s="2">
-        <v>325.65199999999999</v>
+        <v>426.81599999999997</v>
       </c>
       <c r="C99" s="2">
-        <v>81.923500000000004</v>
+        <v>84.096299999999999</v>
       </c>
       <c r="D99" s="2">
-        <v>170.52799999999999</v>
+        <v>205.358</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>190.785</v>
+        <v>197.22900000000001</v>
       </c>
       <c r="B100" s="2">
-        <v>332.72399999999999</v>
+        <v>412.86500000000001</v>
       </c>
       <c r="C100" s="2">
-        <v>79.772400000000005</v>
+        <v>81.805099999999996</v>
       </c>
       <c r="D100" s="2">
-        <v>171.45699999999999</v>
+        <v>207.77799999999999</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>188.44900000000001</v>
+        <v>195.221</v>
       </c>
       <c r="B101" s="2">
-        <v>331.13400000000001</v>
+        <v>427.66300000000001</v>
       </c>
       <c r="C101" s="2">
-        <v>77.922899999999998</v>
+        <v>79.514799999999994</v>
       </c>
       <c r="D101" s="2">
-        <v>167.91399999999999</v>
+        <v>204.63800000000001</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>186.84299999999999</v>
+        <v>188.95400000000001</v>
       </c>
       <c r="B102" s="2">
-        <v>310.20699999999999</v>
+        <v>400.572</v>
       </c>
       <c r="C102" s="2">
-        <v>71.5899</v>
+        <v>76.383099999999999</v>
       </c>
       <c r="D102" s="2">
-        <v>160.13300000000001</v>
+        <v>191.45099999999999</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>188.529</v>
+        <v>196.006</v>
       </c>
       <c r="B103" s="2">
-        <v>325.517</v>
+        <v>415.46499999999997</v>
       </c>
       <c r="C103" s="2">
-        <v>75.533299999999997</v>
+        <v>77.115700000000004</v>
       </c>
       <c r="D103" s="2">
-        <v>171.565</v>
+        <v>203.13300000000001</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>190.64400000000001</v>
+        <v>195.66800000000001</v>
       </c>
       <c r="B104" s="2">
-        <v>335.16800000000001</v>
+        <v>412.29599999999999</v>
       </c>
       <c r="C104" s="2">
-        <v>72.272199999999998</v>
+        <v>75.263199999999998</v>
       </c>
       <c r="D104" s="2">
-        <v>166.887</v>
+        <v>204.32599999999999</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>190.631</v>
+        <v>198.381</v>
       </c>
       <c r="B105" s="2">
-        <v>332.54500000000002</v>
+        <v>427.02199999999999</v>
       </c>
       <c r="C105" s="2">
-        <v>70.358900000000006</v>
+        <v>71.020799999999994</v>
       </c>
       <c r="D105" s="2">
-        <v>168.184</v>
+        <v>202.86500000000001</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>190.40100000000001</v>
+        <v>194.62299999999999</v>
       </c>
       <c r="B106" s="2">
-        <v>328.029</v>
+        <v>414.35399999999998</v>
       </c>
       <c r="C106" s="2">
-        <v>64.228899999999996</v>
+        <v>68.638199999999998</v>
       </c>
       <c r="D106" s="2">
-        <v>167.655</v>
+        <v>200.61699999999999</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>190.68600000000001</v>
+        <v>195.6</v>
       </c>
       <c r="B107" s="2">
-        <v>333.33499999999998</v>
+        <v>423.726</v>
       </c>
       <c r="C107" s="2">
-        <v>63.915500000000002</v>
+        <v>68.857399999999998</v>
       </c>
       <c r="D107" s="2">
-        <v>168.333</v>
+        <v>201.34399999999999</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>191.697</v>
+        <v>196.08799999999999</v>
       </c>
       <c r="B108" s="2">
-        <v>318.887</v>
+        <v>420.851</v>
       </c>
       <c r="C108" s="2">
-        <v>62.8157</v>
+        <v>68.041399999999996</v>
       </c>
       <c r="D108" s="2">
-        <v>170.21</v>
+        <v>199.8</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>190.40700000000001</v>
+        <v>196.042</v>
       </c>
       <c r="B109" s="2">
-        <v>320.18299999999999</v>
+        <v>430.05700000000002</v>
       </c>
       <c r="C109" s="2">
-        <v>61.0642</v>
+        <v>65.390900000000002</v>
       </c>
       <c r="D109" s="2">
-        <v>167.483</v>
+        <v>200.76900000000001</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>188.53299999999999</v>
+        <v>194.81299999999999</v>
       </c>
       <c r="B110" s="2">
-        <v>305.34100000000001</v>
+        <v>398.702</v>
       </c>
       <c r="C110" s="2">
-        <v>59.258400000000002</v>
+        <v>63.989899999999999</v>
       </c>
       <c r="D110" s="2">
-        <v>167.94300000000001</v>
+        <v>199.83500000000001</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>186.672</v>
+        <v>185.934</v>
       </c>
       <c r="B111" s="2">
-        <v>312.29500000000002</v>
+        <v>411.54</v>
       </c>
       <c r="C111" s="2">
-        <v>57.506700000000002</v>
+        <v>64.472999999999999</v>
       </c>
       <c r="D111" s="2">
-        <v>162.065</v>
+        <v>188.31700000000001</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>187.21299999999999</v>
+        <v>195.49700000000001</v>
       </c>
       <c r="B112" s="2">
-        <v>323.03800000000001</v>
+        <v>418.23200000000003</v>
       </c>
       <c r="C112" s="2">
-        <v>61.853900000000003</v>
+        <v>67.001300000000001</v>
       </c>
       <c r="D112" s="2">
-        <v>169.286</v>
+        <v>200.34100000000001</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>189.916</v>
+        <v>196.35499999999999</v>
       </c>
       <c r="B113" s="2">
-        <v>331.245</v>
+        <v>427.75099999999998</v>
       </c>
       <c r="C113" s="2">
-        <v>59.6145</v>
+        <v>62.682099999999998</v>
       </c>
       <c r="D113" s="2">
-        <v>167.845</v>
+        <v>201.673</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>188.65799999999999</v>
+        <v>194.81200000000001</v>
       </c>
       <c r="B114" s="2">
-        <v>326.11500000000001</v>
+        <v>398.536</v>
       </c>
       <c r="C114" s="2">
-        <v>58.406500000000001</v>
+        <v>61.2577</v>
       </c>
       <c r="D114" s="2">
-        <v>167.16399999999999</v>
+        <v>199.06899999999999</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>188.51499999999999</v>
+        <v>196.22499999999999</v>
       </c>
       <c r="B115" s="2">
-        <v>337.66399999999999</v>
+        <v>419.28</v>
       </c>
       <c r="C115" s="2">
-        <v>55.718899999999998</v>
+        <v>59.054900000000004</v>
       </c>
       <c r="D115" s="2">
-        <v>168.38</v>
+        <v>198.869</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>188.43100000000001</v>
+        <v>195.48099999999999</v>
       </c>
       <c r="B116" s="2">
-        <v>332.52300000000002</v>
+        <v>416.52199999999999</v>
       </c>
       <c r="C116" s="2">
-        <v>54.948999999999998</v>
+        <v>57.860900000000001</v>
       </c>
       <c r="D116" s="2">
-        <v>166.98500000000001</v>
+        <v>194.06100000000001</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>190.95400000000001</v>
+        <v>193.27600000000001</v>
       </c>
       <c r="B117" s="2">
-        <v>333.00700000000001</v>
+        <v>417.80599999999998</v>
       </c>
       <c r="C117" s="2">
-        <v>51.752400000000002</v>
+        <v>53.967399999999998</v>
       </c>
       <c r="D117" s="2">
-        <v>162.45400000000001</v>
+        <v>194.15799999999999</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>192.096</v>
+        <v>195.946</v>
       </c>
       <c r="B118" s="2">
-        <v>329.08499999999998</v>
+        <v>417.15800000000002</v>
       </c>
       <c r="C118" s="2">
-        <v>54.702800000000003</v>
+        <v>57.6676</v>
       </c>
       <c r="D118" s="2">
-        <v>168.041</v>
+        <v>200.47800000000001</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>167.947</v>
+        <v>169.70400000000001</v>
       </c>
       <c r="B119" s="2">
-        <v>294.78500000000003</v>
+        <v>374.05200000000002</v>
       </c>
       <c r="C119" s="2">
-        <v>44.941000000000003</v>
+        <v>50.139200000000002</v>
       </c>
       <c r="D119" s="2">
-        <v>140.25399999999999</v>
+        <v>164.053</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>189.55699999999999</v>
+        <v>197.066</v>
       </c>
       <c r="B120" s="2">
-        <v>322.72800000000001</v>
+        <v>432.524</v>
       </c>
       <c r="C120" s="2">
-        <v>54.476599999999998</v>
+        <v>57.376399999999997</v>
       </c>
       <c r="D120" s="2">
-        <v>165.971</v>
+        <v>197.38499999999999</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>191.923</v>
+        <v>197.07900000000001</v>
       </c>
       <c r="B121" s="2">
-        <v>314.03899999999999</v>
+        <v>421.61900000000003</v>
       </c>
       <c r="C121" s="2">
-        <v>53.570500000000003</v>
+        <v>55.477800000000002</v>
       </c>
       <c r="D121" s="2">
-        <v>165.38499999999999</v>
+        <v>190.483</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>193.16</v>
+        <v>195.536</v>
       </c>
       <c r="B122" s="2">
-        <v>327.44</v>
+        <v>420.18299999999999</v>
       </c>
       <c r="C122" s="2">
-        <v>52.457299999999996</v>
+        <v>54.571899999999999</v>
       </c>
       <c r="D122" s="2">
-        <v>162.21799999999999</v>
+        <v>195.27799999999999</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>193.20400000000001</v>
+        <v>198.523</v>
       </c>
       <c r="B123" s="2">
-        <v>332.03100000000001</v>
+        <v>418.20600000000002</v>
       </c>
       <c r="C123" s="2">
-        <v>51.990099999999998</v>
+        <v>54.5687</v>
       </c>
       <c r="D123" s="2">
-        <v>165.71100000000001</v>
+        <v>198.76900000000001</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
-        <v>190.715</v>
+        <v>197.57599999999999</v>
       </c>
       <c r="B124" s="2">
-        <v>330.84800000000001</v>
+        <v>422.029</v>
       </c>
       <c r="C124" s="2">
-        <v>50.6586</v>
+        <v>53.217300000000002</v>
       </c>
       <c r="D124" s="2">
-        <v>165.12899999999999</v>
+        <v>197.173</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>193.77699999999999</v>
+        <v>199.06299999999999</v>
       </c>
       <c r="B125" s="2">
-        <v>327.79399999999998</v>
+        <v>422.91199999999998</v>
       </c>
       <c r="C125" s="2">
-        <v>50.583500000000001</v>
+        <v>52.2376</v>
       </c>
       <c r="D125" s="2">
-        <v>167.97300000000001</v>
+        <v>189.82</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>192.38</v>
+        <v>201.042</v>
       </c>
       <c r="B126" s="2">
-        <v>322.45499999999998</v>
+        <v>420.72</v>
       </c>
       <c r="C126" s="2">
-        <v>49.4512</v>
+        <v>51.449199999999998</v>
       </c>
       <c r="D126" s="2">
-        <v>158.66800000000001</v>
+        <v>196.80600000000001</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>175.09700000000001</v>
+        <v>177.15299999999999</v>
       </c>
       <c r="B127" s="2">
-        <v>291.43200000000002</v>
+        <v>379.68599999999998</v>
       </c>
       <c r="C127" s="2">
-        <v>43.494</v>
+        <v>47.400599999999997</v>
       </c>
       <c r="D127" s="2">
-        <v>144.06100000000001</v>
+        <v>171.499</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>192.47</v>
+        <v>197.12700000000001</v>
       </c>
       <c r="B128" s="2">
-        <v>318.928</v>
+        <v>423.60199999999998</v>
       </c>
       <c r="C128" s="2">
-        <v>51.942700000000002</v>
+        <v>52.666899999999998</v>
       </c>
       <c r="D128" s="2">
-        <v>168.09700000000001</v>
+        <v>198.61600000000001</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>192.62</v>
+        <v>197.75800000000001</v>
       </c>
       <c r="B129" s="2">
-        <v>396.63600000000002</v>
+        <v>424.10599999999999</v>
       </c>
       <c r="C129" s="2">
-        <v>48.4253</v>
+        <v>51.151600000000002</v>
       </c>
       <c r="D129" s="2">
-        <v>164.261</v>
+        <v>194.51599999999999</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>193.52699999999999</v>
+        <v>196.54499999999999</v>
       </c>
       <c r="B130" s="2">
-        <v>390.62900000000002</v>
+        <v>434.17200000000003</v>
       </c>
       <c r="C130" s="2">
-        <v>47.416600000000003</v>
+        <v>48.6203</v>
       </c>
       <c r="D130" s="2">
-        <v>162.54900000000001</v>
+        <v>193.28200000000001</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>194.70599999999999</v>
+        <v>197.506</v>
       </c>
       <c r="B131" s="2">
-        <v>390.19600000000003</v>
+        <v>421.15699999999998</v>
       </c>
       <c r="C131" s="2">
-        <v>47.305399999999999</v>
+        <v>48.692399999999999</v>
       </c>
       <c r="D131" s="2">
-        <v>166.39099999999999</v>
+        <v>194.589</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
-        <v>192.53700000000001</v>
+        <v>198.47900000000001</v>
       </c>
       <c r="B132" s="2">
-        <v>386.42399999999998</v>
+        <v>420.68099999999998</v>
       </c>
       <c r="C132" s="2">
-        <v>50.023200000000003</v>
+        <v>48.919400000000003</v>
       </c>
       <c r="D132" s="2">
-        <v>164.494</v>
+        <v>194.66</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
-        <v>191.86699999999999</v>
+        <v>198.267</v>
       </c>
       <c r="B133" s="2">
-        <v>422.92399999999998</v>
+        <v>422.26400000000001</v>
       </c>
       <c r="C133" s="2">
-        <v>49.575299999999999</v>
+        <v>47.304099999999998</v>
       </c>
       <c r="D133" s="2">
-        <v>165.06800000000001</v>
+        <v>192.36199999999999</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>193.191</v>
+        <v>201.42699999999999</v>
       </c>
       <c r="B134" s="2">
-        <v>435.262</v>
+        <v>424.14600000000002</v>
       </c>
       <c r="C134" s="2">
-        <v>49.625100000000003</v>
+        <v>47.449800000000003</v>
       </c>
       <c r="D134" s="2">
-        <v>163.66200000000001</v>
+        <v>196.50200000000001</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>172.87200000000001</v>
+        <v>172.96899999999999</v>
       </c>
       <c r="B135" s="2">
-        <v>376.09899999999999</v>
+        <v>369.66</v>
       </c>
       <c r="C135" s="2">
-        <v>44.132399999999997</v>
+        <v>43.7393</v>
       </c>
       <c r="D135" s="2">
-        <v>143.68299999999999</v>
+        <v>167.06299999999999</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>196.268</v>
+        <v>201.08600000000001</v>
       </c>
       <c r="B136" s="2">
-        <v>433.423</v>
+        <v>423.59</v>
       </c>
       <c r="C136" s="2">
-        <v>50.133600000000001</v>
+        <v>47.603200000000001</v>
       </c>
       <c r="D136" s="2">
-        <v>162.16</v>
+        <v>192.13499999999999</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>192.977</v>
+        <v>198.935</v>
       </c>
       <c r="B137" s="2">
-        <v>420.19600000000003</v>
+        <v>420.91800000000001</v>
       </c>
       <c r="C137" s="2">
-        <v>48.536700000000003</v>
+        <v>47.696899999999999</v>
       </c>
       <c r="D137" s="2">
-        <v>164.7</v>
+        <v>190.279</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>192.33600000000001</v>
+        <v>199.12899999999999</v>
       </c>
       <c r="B138" s="2">
-        <v>433.34399999999999</v>
+        <v>423.31599999999997</v>
       </c>
       <c r="C138" s="2">
-        <v>48.791400000000003</v>
+        <v>46.464199999999998</v>
       </c>
       <c r="D138" s="2">
-        <v>164.89</v>
+        <v>192.762</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>193.19800000000001</v>
+        <v>198.27600000000001</v>
       </c>
       <c r="B139" s="2">
-        <v>418.49900000000002</v>
+        <v>418.91399999999999</v>
       </c>
       <c r="C139" s="2">
-        <v>47.233600000000003</v>
+        <v>45.538600000000002</v>
       </c>
       <c r="D139" s="2">
-        <v>165.09100000000001</v>
+        <v>191.88300000000001</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>192.41499999999999</v>
+        <v>199.06700000000001</v>
       </c>
       <c r="B140" s="2">
-        <v>421.995</v>
+        <v>420.178</v>
       </c>
       <c r="C140" s="2">
-        <v>46.630099999999999</v>
+        <v>46.906599999999997</v>
       </c>
       <c r="D140" s="2">
-        <v>162.69900000000001</v>
+        <v>190.827</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
-        <v>196.40299999999999</v>
+        <v>200.18299999999999</v>
       </c>
       <c r="B141" s="2">
-        <v>424.91699999999997</v>
+        <v>419.185</v>
       </c>
       <c r="C141" s="2">
-        <v>47.414499999999997</v>
+        <v>44.952199999999998</v>
       </c>
       <c r="D141" s="2">
-        <v>163.90299999999999</v>
+        <v>181.917</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
-        <v>192.49700000000001</v>
+        <v>202.77199999999999</v>
       </c>
       <c r="B142" s="2">
-        <v>424.6</v>
+        <v>435.26900000000001</v>
       </c>
       <c r="C142" s="2">
-        <v>45.637799999999999</v>
+        <v>44.195500000000003</v>
       </c>
       <c r="D142" s="2">
-        <v>158.41800000000001</v>
+        <v>189.93799999999999</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>172.22</v>
+        <v>174.22499999999999</v>
       </c>
       <c r="B143" s="2">
-        <v>345.31299999999999</v>
+        <v>335.74200000000002</v>
       </c>
       <c r="C143" s="2">
-        <v>45.658099999999997</v>
+        <v>43.853700000000003</v>
       </c>
       <c r="D143" s="2">
-        <v>147.88499999999999</v>
+        <v>168.715</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
-        <v>173.79499999999999</v>
+        <v>178.048</v>
       </c>
       <c r="B144" s="2">
-        <v>383.57</v>
+        <v>393.262</v>
       </c>
       <c r="C144" s="2">
-        <v>43.0608</v>
+        <v>42.1982</v>
       </c>
       <c r="D144" s="2">
-        <v>147.429</v>
+        <v>168.48699999999999</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
-        <v>195.511</v>
+        <v>199.339</v>
       </c>
       <c r="B145" s="2">
-        <v>428.20499999999998</v>
+        <v>433.70299999999997</v>
       </c>
       <c r="C145" s="2">
-        <v>48.0124</v>
+        <v>45.414299999999997</v>
       </c>
       <c r="D145" s="2">
-        <v>160.71600000000001</v>
+        <v>187.68600000000001</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <v>195.589</v>
+        <v>200.477</v>
       </c>
       <c r="B146" s="2">
-        <v>435.97199999999998</v>
+        <v>433.59399999999999</v>
       </c>
       <c r="C146" s="2">
-        <v>45.813099999999999</v>
+        <v>44.494999999999997</v>
       </c>
       <c r="D146" s="2">
-        <v>162.489</v>
+        <v>189.77099999999999</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
-        <v>192.07</v>
+        <v>198.28800000000001</v>
       </c>
       <c r="B147" s="2">
-        <v>425.24700000000001</v>
+        <v>424.36399999999998</v>
       </c>
       <c r="C147" s="2">
-        <v>45.194699999999997</v>
+        <v>43.537799999999997</v>
       </c>
       <c r="D147" s="2">
-        <v>161.62299999999999</v>
+        <v>187.541</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>196.29300000000001</v>
+        <v>198.345</v>
       </c>
       <c r="B148" s="2">
-        <v>436.84699999999998</v>
+        <v>422.25099999999998</v>
       </c>
       <c r="C148" s="2">
-        <v>45.125900000000001</v>
+        <v>44.126899999999999</v>
       </c>
       <c r="D148" s="2">
-        <v>165.672</v>
+        <v>187.58099999999999</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
-        <v>197.00700000000001</v>
+        <v>200.09899999999999</v>
       </c>
       <c r="B149" s="2">
-        <v>425.97399999999999</v>
+        <v>426.2</v>
       </c>
       <c r="C149" s="2">
-        <v>44.166899999999998</v>
+        <v>43.0169</v>
       </c>
       <c r="D149" s="2">
-        <v>163.17400000000001</v>
+        <v>187.715</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>194.803</v>
+        <v>197.345</v>
       </c>
       <c r="B150" s="2">
-        <v>438.786</v>
+        <v>429.13499999999999</v>
       </c>
       <c r="C150" s="2">
-        <v>44.598399999999998</v>
+        <v>42.411299999999997</v>
       </c>
       <c r="D150" s="2">
-        <v>164.79</v>
+        <v>187.39500000000001</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>195.05099999999999</v>
+        <v>198.93899999999999</v>
       </c>
       <c r="B151" s="2">
-        <v>426.452</v>
+        <v>423.69799999999998</v>
       </c>
       <c r="C151" s="2">
-        <v>43.581899999999997</v>
+        <v>42.580599999999997</v>
       </c>
       <c r="D151" s="2">
-        <v>162.43100000000001</v>
+        <v>186.12700000000001</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>196.017</v>
+        <v>197.37899999999999</v>
       </c>
       <c r="B152" s="2">
-        <v>427.25200000000001</v>
+        <v>425.96899999999999</v>
       </c>
       <c r="C152" s="2">
-        <v>44.528100000000002</v>
+        <v>42.3157</v>
       </c>
       <c r="D152" s="2">
-        <v>161.98400000000001</v>
+        <v>188.36799999999999</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <v>172.16300000000001</v>
+        <v>174.489</v>
       </c>
       <c r="B153" s="2">
-        <v>380.93099999999998</v>
+        <v>384.01299999999998</v>
       </c>
       <c r="C153" s="2">
-        <v>42.453800000000001</v>
+        <v>41.786799999999999</v>
       </c>
       <c r="D153" s="2">
-        <v>144.09100000000001</v>
+        <v>166.49600000000001</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
-        <v>197.67</v>
+        <v>203.09700000000001</v>
       </c>
       <c r="B154" s="2">
-        <v>441.19400000000002</v>
+        <v>428.96100000000001</v>
       </c>
       <c r="C154" s="2">
-        <v>47.260899999999999</v>
+        <v>44.902200000000001</v>
       </c>
       <c r="D154" s="2">
-        <v>163.22</v>
+        <v>190.49600000000001</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
-        <v>198.601</v>
+        <v>205.03899999999999</v>
       </c>
       <c r="B155" s="2">
-        <v>431.63600000000002</v>
+        <v>433.24400000000003</v>
       </c>
       <c r="C155" s="2">
-        <v>44.613700000000001</v>
+        <v>42.968600000000002</v>
       </c>
       <c r="D155" s="2">
-        <v>165.61600000000001</v>
+        <v>190.08799999999999</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
-        <v>198.29900000000001</v>
+        <v>203.33799999999999</v>
       </c>
       <c r="B156" s="2">
-        <v>427.226</v>
+        <v>434.47699999999998</v>
       </c>
       <c r="C156" s="2">
-        <v>45.0777</v>
+        <v>43.064700000000002</v>
       </c>
       <c r="D156" s="2">
-        <v>165.422</v>
+        <v>189.393</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
-        <v>198.05199999999999</v>
+        <v>203.94300000000001</v>
       </c>
       <c r="B157" s="2">
-        <v>430.91699999999997</v>
+        <v>432.70499999999998</v>
       </c>
       <c r="C157" s="2">
-        <v>43.273099999999999</v>
+        <v>43.374499999999998</v>
       </c>
       <c r="D157" s="2">
-        <v>166.62799999999999</v>
+        <v>189.93799999999999</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <v>199.83</v>
+        <v>208.49199999999999</v>
       </c>
       <c r="B158" s="2">
-        <v>433.11</v>
+        <v>443.42399999999998</v>
       </c>
       <c r="C158" s="2">
-        <v>41.191099999999999</v>
+        <v>42.3626</v>
       </c>
       <c r="D158" s="2">
-        <v>167.059</v>
+        <v>190.62899999999999</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
-        <v>200.35900000000001</v>
+        <v>204.244</v>
       </c>
       <c r="B159" s="2">
-        <v>433.54599999999999</v>
+        <v>445.07900000000001</v>
       </c>
       <c r="C159" s="2">
-        <v>41.390599999999999</v>
+        <v>41.999000000000002</v>
       </c>
       <c r="D159" s="2">
-        <v>164.76</v>
+        <v>188.29499999999999</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
-        <v>198.172</v>
+        <v>204.32300000000001</v>
       </c>
       <c r="B160" s="2">
-        <v>440.40800000000002</v>
+        <v>433.83600000000001</v>
       </c>
       <c r="C160" s="2">
-        <v>40.555199999999999</v>
+        <v>41.932000000000002</v>
       </c>
       <c r="D160" s="2">
-        <v>165.435</v>
+        <v>189.68199999999999</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
-        <v>177.33199999999999</v>
+        <v>174.006</v>
       </c>
       <c r="B161" s="2">
-        <v>397.55900000000003</v>
+        <v>389.55200000000002</v>
       </c>
       <c r="C161" s="2">
-        <v>37.320900000000002</v>
+        <v>40.0426</v>
       </c>
       <c r="D161" s="2">
-        <v>145.80000000000001</v>
+        <v>165.57400000000001</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
-        <v>203.73099999999999</v>
+        <v>206.86099999999999</v>
       </c>
       <c r="B162" s="2">
-        <v>451.46</v>
+        <v>437.80599999999998</v>
       </c>
       <c r="C162" s="2">
-        <v>42.9512</v>
+        <v>43.988599999999998</v>
       </c>
       <c r="D162" s="2">
-        <v>169.363</v>
+        <v>195.58</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
-        <v>199.71700000000001</v>
+        <v>206.98400000000001</v>
       </c>
       <c r="B163" s="2">
-        <v>451.26400000000001</v>
+        <v>450.19900000000001</v>
       </c>
       <c r="C163" s="2">
-        <v>41.458799999999997</v>
+        <v>42.635800000000003</v>
       </c>
       <c r="D163" s="2">
-        <v>168.499</v>
+        <v>190.315</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
-        <v>202.98500000000001</v>
+        <v>208.01599999999999</v>
       </c>
       <c r="B164" s="2">
-        <v>436.23899999999998</v>
+        <v>447.19900000000001</v>
       </c>
       <c r="C164" s="2">
-        <v>40.466299999999997</v>
+        <v>42.285899999999998</v>
       </c>
       <c r="D164" s="2">
-        <v>168.876</v>
+        <v>191.55699999999999</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
-        <v>203.07300000000001</v>
+        <v>206.89599999999999</v>
       </c>
       <c r="B165" s="2">
-        <v>450.80799999999999</v>
+        <v>439.07900000000001</v>
       </c>
       <c r="C165" s="2">
-        <v>40.234299999999998</v>
+        <v>42.545699999999997</v>
       </c>
       <c r="D165" s="2">
-        <v>169.93899999999999</v>
+        <v>193.76900000000001</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
-        <v>199.69200000000001</v>
+        <v>207.41900000000001</v>
       </c>
       <c r="B166" s="2">
-        <v>438.44600000000003</v>
+        <v>438.85700000000003</v>
       </c>
       <c r="C166" s="2">
-        <v>40.180700000000002</v>
+        <v>41.594900000000003</v>
       </c>
       <c r="D166" s="2">
-        <v>169.65600000000001</v>
+        <v>193.22</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
-        <v>201.84</v>
+        <v>212.203</v>
       </c>
       <c r="B167" s="2">
-        <v>434.79199999999997</v>
+        <v>436.31700000000001</v>
       </c>
       <c r="C167" s="2">
-        <v>40.149500000000003</v>
+        <v>40.93</v>
       </c>
       <c r="D167" s="2">
-        <v>168.55699999999999</v>
+        <v>190.17599999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
-        <v>202.625</v>
+        <v>206.06700000000001</v>
       </c>
       <c r="B168" s="2">
-        <v>438.03300000000002</v>
+        <v>434.851</v>
       </c>
       <c r="C168" s="2">
-        <v>39.880000000000003</v>
+        <v>41.695599999999999</v>
       </c>
       <c r="D168" s="2">
-        <v>169.30199999999999</v>
+        <v>192.37700000000001</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
-        <v>204.31200000000001</v>
+        <v>210.149</v>
       </c>
       <c r="B169" s="2">
-        <v>434.69200000000001</v>
+        <v>449.45800000000003</v>
       </c>
       <c r="C169" s="2">
-        <v>38.894199999999998</v>
+        <v>40.680199999999999</v>
       </c>
       <c r="D169" s="2">
-        <v>169.44900000000001</v>
+        <v>190.42599999999999</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
-        <v>178.97200000000001</v>
+        <v>179.23599999999999</v>
       </c>
       <c r="B170" s="2">
-        <v>396.59500000000003</v>
+        <v>397.88</v>
       </c>
       <c r="C170" s="2">
-        <v>37.1111</v>
+        <v>40.762500000000003</v>
       </c>
       <c r="D170" s="2">
-        <v>147.828</v>
+        <v>168.714</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
-        <v>207.684</v>
+        <v>212.613</v>
       </c>
       <c r="B171" s="2">
-        <v>446.13299999999998</v>
+        <v>438.25900000000001</v>
       </c>
       <c r="C171" s="2">
-        <v>41.558599999999998</v>
+        <v>44.076000000000001</v>
       </c>
       <c r="D171" s="2">
-        <v>175.36</v>
+        <v>200.82499999999999</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
-        <v>208.23400000000001</v>
+        <v>216.23</v>
       </c>
       <c r="B172" s="2">
-        <v>459.31099999999998</v>
+        <v>445.40600000000001</v>
       </c>
       <c r="C172" s="2">
-        <v>40.512900000000002</v>
+        <v>42.815899999999999</v>
       </c>
       <c r="D172" s="2">
-        <v>172.32499999999999</v>
+        <v>196.173</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
-        <v>207.70400000000001</v>
+        <v>211.36</v>
       </c>
       <c r="B173" s="2">
-        <v>439.67899999999997</v>
+        <v>444.58600000000001</v>
       </c>
       <c r="C173" s="2">
-        <v>40.5381</v>
+        <v>42.4938</v>
       </c>
       <c r="D173" s="2">
-        <v>171.898</v>
+        <v>192.50200000000001</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <v>207.00399999999999</v>
+        <v>215.30699999999999</v>
       </c>
       <c r="B174" s="2">
-        <v>432.97500000000002</v>
+        <v>455.87200000000001</v>
       </c>
       <c r="C174" s="2">
-        <v>40.081000000000003</v>
+        <v>41.971899999999998</v>
       </c>
       <c r="D174" s="2">
-        <v>174.53</v>
+        <v>196.94499999999999</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <v>209.30600000000001</v>
+        <v>217.34100000000001</v>
       </c>
       <c r="B175" s="2">
-        <v>428.17599999999999</v>
+        <v>445.29199999999997</v>
       </c>
       <c r="C175" s="2">
-        <v>39.698300000000003</v>
+        <v>41.456000000000003</v>
       </c>
       <c r="D175" s="2">
-        <v>172.28399999999999</v>
+        <v>194.48599999999999</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <v>206.11199999999999</v>
+        <v>213.34399999999999</v>
       </c>
       <c r="B176" s="2">
-        <v>446.71699999999998</v>
+        <v>455.94499999999999</v>
       </c>
       <c r="C176" s="2">
-        <v>40.104500000000002</v>
+        <v>42.2029</v>
       </c>
       <c r="D176" s="2">
-        <v>173.15</v>
+        <v>196.547</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
-        <v>207.81899999999999</v>
+        <v>212.392</v>
       </c>
       <c r="B177" s="2">
-        <v>448.44200000000001</v>
+        <v>445.36099999999999</v>
       </c>
       <c r="C177" s="2">
-        <v>39.0732</v>
+        <v>41.558700000000002</v>
       </c>
       <c r="D177" s="2">
-        <v>172.28100000000001</v>
+        <v>196.64599999999999</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <v>185.95599999999999</v>
+        <v>188.00399999999999</v>
       </c>
       <c r="B178" s="2">
-        <v>406.68099999999998</v>
+        <v>404.01100000000002</v>
       </c>
       <c r="C178" s="2">
-        <v>36.251600000000003</v>
+        <v>39.463299999999997</v>
       </c>
       <c r="D178" s="2">
-        <v>154.05699999999999</v>
+        <v>174.483</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
-        <v>202.565</v>
+        <v>211.547</v>
       </c>
       <c r="B179" s="2">
-        <v>448.90699999999998</v>
+        <v>446.40699999999998</v>
       </c>
       <c r="C179" s="2">
-        <v>40.127000000000002</v>
+        <v>42.310099999999998</v>
       </c>
       <c r="D179" s="2">
-        <v>170.684</v>
+        <v>197.93299999999999</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
-        <v>210.51</v>
+        <v>215.08699999999999</v>
       </c>
       <c r="B180" s="2">
-        <v>435.75799999999998</v>
+        <v>445.55700000000002</v>
       </c>
       <c r="C180" s="2">
-        <v>39.668999999999997</v>
+        <v>42.000999999999998</v>
       </c>
       <c r="D180" s="2">
-        <v>172.26900000000001</v>
+        <v>194.77699999999999</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <v>208.482</v>
+        <v>213.93899999999999</v>
       </c>
       <c r="B181" s="2">
-        <v>437.76499999999999</v>
+        <v>448.96499999999997</v>
       </c>
       <c r="C181" s="2">
-        <v>38.883099999999999</v>
+        <v>41.6175</v>
       </c>
       <c r="D181" s="2">
-        <v>170.886</v>
+        <v>194.953</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
-        <v>208.679</v>
+        <v>214.82300000000001</v>
       </c>
       <c r="B182" s="2">
-        <v>432.40199999999999</v>
+        <v>456.85599999999999</v>
       </c>
       <c r="C182" s="2">
-        <v>38.616999999999997</v>
+        <v>40.312100000000001</v>
       </c>
       <c r="D182" s="2">
-        <v>171.447</v>
+        <v>195.46899999999999</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
-        <v>209.529</v>
+        <v>211.209</v>
       </c>
       <c r="B183" s="2">
-        <v>449.43200000000002</v>
+        <v>446.238</v>
       </c>
       <c r="C183" s="2">
-        <v>37.986699999999999</v>
+        <v>40.232500000000002</v>
       </c>
       <c r="D183" s="2">
-        <v>171.11600000000001</v>
+        <v>196.21299999999999</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
-        <v>209.60599999999999</v>
+        <v>215.44</v>
       </c>
       <c r="B184" s="2">
-        <v>441.60700000000003</v>
+        <v>444.56400000000002</v>
       </c>
       <c r="C184" s="2">
-        <v>38.196899999999999</v>
+        <v>40.165399999999998</v>
       </c>
       <c r="D184" s="2">
-        <v>170.11</v>
+        <v>188.702</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
-        <v>206.45099999999999</v>
+        <v>213.76300000000001</v>
       </c>
       <c r="B185" s="2">
-        <v>448.74299999999999</v>
+        <v>446.38200000000001</v>
       </c>
       <c r="C185" s="2">
-        <v>37.769300000000001</v>
+        <v>40.172699999999999</v>
       </c>
       <c r="D185" s="2">
-        <v>169.97300000000001</v>
+        <v>191.15700000000001</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
-        <v>211.15</v>
+        <v>215.25200000000001</v>
       </c>
       <c r="B186" s="2">
-        <v>390.315</v>
+        <v>401.09100000000001</v>
       </c>
       <c r="C186" s="2">
-        <v>37.574399999999997</v>
+        <v>40.219200000000001</v>
       </c>
       <c r="D186" s="2">
-        <v>171.81399999999999</v>
+        <v>195.02500000000001</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
-        <v>180.11799999999999</v>
+        <v>183.739</v>
       </c>
       <c r="B187" s="2">
-        <v>406.79399999999998</v>
+        <v>411.58499999999998</v>
       </c>
       <c r="C187" s="2">
-        <v>35.7166</v>
+        <v>38.981999999999999</v>
       </c>
       <c r="D187" s="2">
-        <v>152.16</v>
+        <v>172.65899999999999</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
-        <v>207.82599999999999</v>
+        <v>214.88300000000001</v>
       </c>
       <c r="B188" s="2">
-        <v>449.02</v>
+        <v>458.90600000000001</v>
       </c>
       <c r="C188" s="2">
-        <v>39.0336</v>
+        <v>41.374299999999998</v>
       </c>
       <c r="D188" s="2">
-        <v>173.227</v>
+        <v>196.37</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
-        <v>209.20500000000001</v>
+        <v>215.61500000000001</v>
       </c>
       <c r="B189" s="2">
-        <v>436.67099999999999</v>
+        <v>445.90600000000001</v>
       </c>
       <c r="C189" s="2">
-        <v>38.102899999999998</v>
+        <v>40.359299999999998</v>
       </c>
       <c r="D189" s="2">
-        <v>172.06700000000001</v>
+        <v>193.62100000000001</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
-        <v>210.374</v>
+        <v>213.518</v>
       </c>
       <c r="B190" s="2">
-        <v>438.73500000000001</v>
+        <v>446.11099999999999</v>
       </c>
       <c r="C190" s="2">
-        <v>37.268999999999998</v>
+        <v>39.275300000000001</v>
       </c>
       <c r="D190" s="2">
-        <v>172.744</v>
+        <v>193.67</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
-        <v>206.99600000000001</v>
+        <v>212.52699999999999</v>
       </c>
       <c r="B191" s="2">
-        <v>415.76</v>
+        <v>456.77</v>
       </c>
       <c r="C191" s="2">
-        <v>37.562399999999997</v>
+        <v>39.422800000000002</v>
       </c>
       <c r="D191" s="2">
-        <v>170.40299999999999</v>
+        <v>193.304</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
-        <v>211.76900000000001</v>
+        <v>215.20599999999999</v>
       </c>
       <c r="B192" s="2">
-        <v>454.85500000000002</v>
+        <v>446.529</v>
       </c>
       <c r="C192" s="2">
-        <v>36.7059</v>
+        <v>39.426200000000001</v>
       </c>
       <c r="D192" s="2">
-        <v>172.465</v>
+        <v>193.18</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>210.28700000000001</v>
+        <v>212.68199999999999</v>
       </c>
       <c r="B193" s="2">
-        <v>451.13099999999997</v>
+        <v>455.97300000000001</v>
       </c>
       <c r="C193" s="2">
-        <v>36.259700000000002</v>
+        <v>38.924500000000002</v>
       </c>
       <c r="D193" s="2">
-        <v>170.423</v>
+        <v>192.506</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>205.24</v>
+        <v>213.54900000000001</v>
       </c>
       <c r="B194" s="2">
-        <v>437.08699999999999</v>
+        <v>446.21600000000001</v>
       </c>
       <c r="C194" s="2">
-        <v>36.640900000000002</v>
+        <v>38.907800000000002</v>
       </c>
       <c r="D194" s="2">
-        <v>169.86</v>
+        <v>191.79499999999999</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>210.328</v>
+        <v>213.077</v>
       </c>
       <c r="B195" s="2">
-        <v>435.48</v>
+        <v>449.40300000000002</v>
       </c>
       <c r="C195" s="2">
-        <v>36.947800000000001</v>
+        <v>38.914099999999998</v>
       </c>
       <c r="D195" s="2">
-        <v>172.363</v>
+        <v>193.52500000000001</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>185.58</v>
+        <v>184.85300000000001</v>
       </c>
       <c r="B196" s="2">
-        <v>400.72699999999998</v>
+        <v>407.05</v>
       </c>
       <c r="C196" s="2">
-        <v>33.974800000000002</v>
+        <v>36.564599999999999</v>
       </c>
       <c r="D196" s="2">
-        <v>153.215</v>
+        <v>170.83699999999999</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
-        <v>208.458</v>
+        <v>215.011</v>
       </c>
       <c r="B197" s="2">
-        <v>438.11799999999999</v>
+        <v>456.85300000000001</v>
       </c>
       <c r="C197" s="2">
-        <v>37.5749</v>
+        <v>39.886000000000003</v>
       </c>
       <c r="D197" s="2">
-        <v>172.386</v>
+        <v>195.22499999999999</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
-        <v>207.523</v>
+        <v>212.309</v>
       </c>
       <c r="B198" s="2">
-        <v>422.142</v>
+        <v>447.60899999999998</v>
       </c>
       <c r="C198" s="2">
-        <v>37.1494</v>
+        <v>39.277299999999997</v>
       </c>
       <c r="D198" s="2">
-        <v>171.977</v>
+        <v>190.05</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <v>210.66399999999999</v>
+        <v>211.66900000000001</v>
       </c>
       <c r="B199" s="2">
-        <v>435.84500000000003</v>
+        <v>443.904</v>
       </c>
       <c r="C199" s="2">
-        <v>36.339599999999997</v>
+        <v>37.960099999999997</v>
       </c>
       <c r="D199" s="2">
-        <v>167.779</v>
+        <v>186.67599999999999</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <v>209.214</v>
+        <v>212.64400000000001</v>
       </c>
       <c r="B200" s="2">
-        <v>434.98700000000002</v>
+        <v>457.084</v>
       </c>
       <c r="C200" s="2">
-        <v>36.062899999999999</v>
+        <v>37.867600000000003</v>
       </c>
       <c r="D200" s="2">
-        <v>170.43100000000001</v>
+        <v>186.09800000000001</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
-        <v>210.32</v>
+        <v>212.11500000000001</v>
       </c>
       <c r="B201" s="2">
-        <v>433.45400000000001</v>
+        <v>447.58499999999998</v>
       </c>
       <c r="C201" s="2">
-        <v>36.085700000000003</v>
+        <v>37.668100000000003</v>
       </c>
       <c r="D201" s="2">
-        <v>171.15899999999999</v>
+        <v>191.52500000000001</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
-        <v>208.00899999999999</v>
+        <v>216.374</v>
       </c>
       <c r="B202" s="2">
-        <v>438.06</v>
+        <v>445.37799999999999</v>
       </c>
       <c r="C202" s="2">
-        <v>35.7485</v>
+        <v>37.5124</v>
       </c>
       <c r="D202" s="2">
-        <v>175.541</v>
+        <v>193.375</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
-        <v>205.93600000000001</v>
+        <v>214.37299999999999</v>
       </c>
       <c r="B203" s="2">
-        <v>437.60399999999998</v>
+        <v>447.37799999999999</v>
       </c>
       <c r="C203" s="2">
-        <v>35.776200000000003</v>
+        <v>37.240900000000003</v>
       </c>
       <c r="D203" s="2">
-        <v>177.499</v>
+        <v>191.10300000000001</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
-        <v>190.423</v>
+        <v>190.90100000000001</v>
       </c>
       <c r="B204" s="2">
-        <v>401.60599999999999</v>
+        <v>410.81700000000001</v>
       </c>
       <c r="C204" s="2">
-        <v>34.328299999999999</v>
+        <v>37.168900000000001</v>
       </c>
       <c r="D204" s="2">
-        <v>154.70099999999999</v>
+        <v>169.21600000000001</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
-        <v>210.089</v>
+        <v>214.38399999999999</v>
       </c>
       <c r="B205" s="2">
-        <v>439.31099999999998</v>
+        <v>449.13299999999998</v>
       </c>
       <c r="C205" s="2">
-        <v>36.553400000000003</v>
+        <v>39.255899999999997</v>
       </c>
       <c r="D205" s="2">
-        <v>177.292</v>
+        <v>194.102</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>210.39699999999999</v>
+        <v>215.70699999999999</v>
       </c>
       <c r="B206" s="2">
-        <v>436.94200000000001</v>
+        <v>459.38</v>
       </c>
       <c r="C206" s="2">
-        <v>36.117600000000003</v>
+        <v>38.335700000000003</v>
       </c>
       <c r="D206" s="2">
-        <v>173.04400000000001</v>
+        <v>189.9</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>209.92400000000001</v>
+        <v>215.19399999999999</v>
       </c>
       <c r="B207" s="2">
-        <v>438.55</v>
+        <v>447.58800000000002</v>
       </c>
       <c r="C207" s="2">
-        <v>35.735199999999999</v>
+        <v>37.906100000000002</v>
       </c>
       <c r="D207" s="2">
-        <v>171.78399999999999</v>
+        <v>193.08099999999999</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
-        <v>209.72499999999999</v>
+        <v>213.935</v>
       </c>
       <c r="B208" s="2">
-        <v>437.73399999999998</v>
+        <v>456.85599999999999</v>
       </c>
       <c r="C208" s="2">
-        <v>35.485799999999998</v>
+        <v>38.453000000000003</v>
       </c>
       <c r="D208" s="2">
-        <v>168.70400000000001</v>
+        <v>193.89099999999999</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
-        <v>211.67500000000001</v>
+        <v>218.185</v>
       </c>
       <c r="B209" s="2">
-        <v>450.05</v>
+        <v>458.33699999999999</v>
       </c>
       <c r="C209" s="2">
-        <v>34.981000000000002</v>
+        <v>37.278599999999997</v>
       </c>
       <c r="D209" s="2">
-        <v>170.13499999999999</v>
+        <v>188.566</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
-        <v>209.262</v>
+        <v>215.85599999999999</v>
       </c>
       <c r="B210" s="2">
-        <v>447.46899999999999</v>
+        <v>455.71600000000001</v>
       </c>
       <c r="C210" s="2">
-        <v>35.296399999999998</v>
+        <v>37.698599999999999</v>
       </c>
       <c r="D210" s="2">
-        <v>171.13499999999999</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="2">
-        <v>211.75200000000001</v>
-      </c>
-      <c r="B211" s="2">
-        <v>451.73700000000002</v>
-      </c>
-      <c r="C211" s="2">
-        <v>35.082799999999999</v>
-      </c>
-      <c r="D211" s="2">
-        <v>169.477</v>
+        <v>194.27500000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="2">
+        <f>AVERAGE(A2:A211)</f>
+        <v>175.81193540669858</v>
+      </c>
+      <c r="B212" s="2">
+        <f t="shared" ref="B212:D212" si="0">AVERAGE(B2:B211)</f>
+        <v>382.7577464114832</v>
+      </c>
+      <c r="C212" s="2">
+        <f t="shared" si="0"/>
+        <v>59.613769377990444</v>
+      </c>
+      <c r="D212" s="2">
+        <f t="shared" si="0"/>
+        <v>167.64180478468899</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B213" s="2">
+        <f>B212/A212</f>
+        <v>2.1770862457435856</v>
+      </c>
+      <c r="C213" s="2">
+        <f>A212/C212</f>
+        <v>2.9491833387004176</v>
+      </c>
+      <c r="D213" s="2">
+        <f>A212/D212</f>
+        <v>1.0487356398513064</v>
       </c>
     </row>
   </sheetData>
